--- a/analysis/pre_gemini_data/Participant170/taskhard.xlsx
+++ b/analysis/pre_gemini_data/Participant170/taskhard.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO14"/>
+  <dimension ref="A1:AO9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,207 +422,203 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>arg2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>arg3</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>arg4</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>arg6</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>assgn</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>conditional body</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>conditional body2</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>conditional statement</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>conditional statement2</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>index</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>loop body</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>loop body2</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>loop body3</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>loop statement</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>loop statement2</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>loop statement3</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>method declaration</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>method2</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>method3</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>method4</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>method5</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>parameters</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>var</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>var10</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>var11</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>var12</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>var13</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>var3</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>var4</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>var5</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>var6</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>var7</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>var8</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>var9</t>
         </is>
@@ -704,25 +688,25 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" t="n">
         <v>34</v>
       </c>
       <c r="H3" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I3" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3" t="n">
         <v>23</v>
       </c>
       <c r="L3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
@@ -731,13 +715,13 @@
         <v>17</v>
       </c>
       <c r="O3" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P3" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q3" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R3" t="n">
         <v>6</v>
@@ -746,7 +730,7 @@
         <v>29</v>
       </c>
       <c r="T3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U3" t="n">
         <v>14</v>
@@ -761,16 +745,16 @@
         <v>4</v>
       </c>
       <c r="Y3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AA3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB3" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="AC3" t="n">
         <v>1</v>
@@ -785,7 +769,7 @@
         <v>7</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH3" t="n">
         <v>2</v>
@@ -794,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL3" t="n">
         <v>4</v>
@@ -809,7 +793,7 @@
         <v>2</v>
       </c>
       <c r="AO3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -829,25 +813,25 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
         <v>71</v>
       </c>
       <c r="H4" t="n">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="I4" t="n">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K4" t="n">
         <v>36</v>
       </c>
       <c r="L4" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M4" t="n">
         <v>110</v>
@@ -856,13 +840,13 @@
         <v>21</v>
       </c>
       <c r="O4" t="n">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="P4" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q4" t="n">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="R4" t="n">
         <v>14</v>
@@ -871,7 +855,7 @@
         <v>71</v>
       </c>
       <c r="T4" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="U4" t="n">
         <v>18</v>
@@ -886,16 +870,16 @@
         <v>5</v>
       </c>
       <c r="Y4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="AC4" t="n">
         <v>2</v>
@@ -910,7 +894,7 @@
         <v>10</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH4" t="n">
         <v>6</v>
@@ -919,10 +903,10 @@
         <v>1</v>
       </c>
       <c r="AJ4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL4" t="n">
         <v>6</v>
@@ -934,7 +918,7 @@
         <v>3</v>
       </c>
       <c r="AO4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -954,25 +938,25 @@
         <v>166.83</v>
       </c>
       <c r="F5" t="n">
-        <v>2284.76</v>
+        <v>2084.6</v>
       </c>
       <c r="G5" t="n">
         <v>19623.6</v>
       </c>
       <c r="H5" t="n">
-        <v>89475.95</v>
+        <v>87328.31</v>
       </c>
       <c r="I5" t="n">
-        <v>53358.99</v>
+        <v>52925.27</v>
       </c>
       <c r="J5" t="n">
-        <v>5704.86</v>
+        <v>5604.74</v>
       </c>
       <c r="K5" t="n">
         <v>12096.24</v>
       </c>
       <c r="L5" t="n">
-        <v>5488.06</v>
+        <v>5271.22</v>
       </c>
       <c r="M5" t="n">
         <v>26130.09</v>
@@ -981,13 +965,13 @@
         <v>5555.83</v>
       </c>
       <c r="O5" t="n">
-        <v>67924.19</v>
+        <v>66956.61</v>
       </c>
       <c r="P5" t="n">
-        <v>13997.1</v>
+        <v>13496.64</v>
       </c>
       <c r="Q5" t="n">
-        <v>38808.67</v>
+        <v>38374.95</v>
       </c>
       <c r="R5" t="n">
         <v>4604.83</v>
@@ -996,7 +980,7 @@
         <v>22807.37</v>
       </c>
       <c r="T5" t="n">
-        <v>10059.36</v>
+        <v>9825.799999999999</v>
       </c>
       <c r="U5" t="n">
         <v>7257.51</v>
@@ -1011,16 +995,16 @@
         <v>1851.89</v>
       </c>
       <c r="Y5" t="n">
-        <v>1184.43</v>
+        <v>1084.39</v>
       </c>
       <c r="Z5" t="n">
-        <v>2252.63</v>
+        <v>1969.02</v>
       </c>
       <c r="AA5" t="n">
-        <v>7574.69</v>
+        <v>7407.87</v>
       </c>
       <c r="AB5" t="n">
-        <v>79532.62</v>
+        <v>75845.34</v>
       </c>
       <c r="AC5" t="n">
         <v>450.42</v>
@@ -1035,7 +1019,7 @@
         <v>3069.89</v>
       </c>
       <c r="AG5" t="n">
-        <v>3453.8</v>
+        <v>3286.99</v>
       </c>
       <c r="AH5" t="n">
         <v>1651.7</v>
@@ -1044,10 +1028,10 @@
         <v>550.58</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4353.91</v>
+        <v>4237.1</v>
       </c>
       <c r="AK5" t="n">
-        <v>2686.01</v>
+        <v>2569.26</v>
       </c>
       <c r="AL5" t="n">
         <v>1568.46</v>
@@ -1059,7 +1043,7 @@
         <v>1451.56</v>
       </c>
       <c r="AO5" t="n">
-        <v>1017.8</v>
+        <v>734.1799999999999</v>
       </c>
     </row>
     <row r="6">
@@ -1069,122 +1053,122 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="G6" t="n">
-        <v>5.15</v>
+        <v>6.14</v>
       </c>
       <c r="H6" t="n">
-        <v>23.49</v>
+        <v>27.32</v>
       </c>
       <c r="I6" t="n">
-        <v>14.01</v>
+        <v>16.56</v>
       </c>
       <c r="J6" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="K6" t="n">
-        <v>3.18</v>
+        <v>3.78</v>
       </c>
       <c r="L6" t="n">
-        <v>1.44</v>
+        <v>1.65</v>
       </c>
       <c r="M6" t="n">
         <v>42.69</v>
       </c>
       <c r="N6" t="n">
-        <v>1.46</v>
+        <v>1.74</v>
       </c>
       <c r="O6" t="n">
-        <v>17.84</v>
+        <v>20.95</v>
       </c>
       <c r="P6" t="n">
-        <v>3.68</v>
+        <v>4.22</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.19</v>
+        <v>12.01</v>
       </c>
       <c r="R6" t="n">
-        <v>1.21</v>
+        <v>1.44</v>
       </c>
       <c r="S6" t="n">
-        <v>5.99</v>
+        <v>7.14</v>
       </c>
       <c r="T6" t="n">
-        <v>2.64</v>
+        <v>3.07</v>
       </c>
       <c r="U6" t="n">
-        <v>1.91</v>
+        <v>2.27</v>
       </c>
       <c r="V6" t="n">
-        <v>2.85</v>
+        <v>3.4</v>
       </c>
       <c r="W6" t="n">
-        <v>0.74</v>
+        <v>0.88</v>
       </c>
       <c r="X6" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>23.73</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AL6" t="n">
         <v>0.49</v>
       </c>
-      <c r="Y6" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>20.88</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0.41</v>
-      </c>
       <c r="AM6" t="n">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="7">
@@ -1204,25 +1188,25 @@
         <v>166.83</v>
       </c>
       <c r="F7" t="n">
-        <v>190.4</v>
+        <v>208.46</v>
       </c>
       <c r="G7" t="n">
         <v>276.39</v>
       </c>
       <c r="H7" t="n">
-        <v>254.19</v>
+        <v>258.37</v>
       </c>
       <c r="I7" t="n">
-        <v>255.31</v>
+        <v>258.17</v>
       </c>
       <c r="J7" t="n">
-        <v>190.16</v>
+        <v>193.27</v>
       </c>
       <c r="K7" t="n">
         <v>336.01</v>
       </c>
       <c r="L7" t="n">
-        <v>211.08</v>
+        <v>219.63</v>
       </c>
       <c r="M7" t="n">
         <v>237.55</v>
@@ -1231,13 +1215,13 @@
         <v>264.56</v>
       </c>
       <c r="O7" t="n">
-        <v>254.4</v>
+        <v>256.54</v>
       </c>
       <c r="P7" t="n">
-        <v>237.24</v>
+        <v>245.39</v>
       </c>
       <c r="Q7" t="n">
-        <v>247.19</v>
+        <v>250.82</v>
       </c>
       <c r="R7" t="n">
         <v>328.92</v>
@@ -1246,7 +1230,7 @@
         <v>321.23</v>
       </c>
       <c r="T7" t="n">
-        <v>214.03</v>
+        <v>218.35</v>
       </c>
       <c r="U7" t="n">
         <v>403.2</v>
@@ -1261,16 +1245,16 @@
         <v>370.38</v>
       </c>
       <c r="Y7" t="n">
-        <v>197.4</v>
+        <v>216.88</v>
       </c>
       <c r="Z7" t="n">
-        <v>173.28</v>
+        <v>179</v>
       </c>
       <c r="AA7" t="n">
-        <v>344.3</v>
+        <v>352.76</v>
       </c>
       <c r="AB7" t="n">
-        <v>301.26</v>
+        <v>305.83</v>
       </c>
       <c r="AC7" t="n">
         <v>225.21</v>
@@ -1285,7 +1269,7 @@
         <v>306.99</v>
       </c>
       <c r="AG7" t="n">
-        <v>383.76</v>
+        <v>410.87</v>
       </c>
       <c r="AH7" t="n">
         <v>275.28</v>
@@ -1294,10 +1278,10 @@
         <v>550.58</v>
       </c>
       <c r="AJ7" t="n">
-        <v>197.9</v>
+        <v>201.77</v>
       </c>
       <c r="AK7" t="n">
-        <v>244.18</v>
+        <v>256.93</v>
       </c>
       <c r="AL7" t="n">
         <v>261.41</v>
@@ -1309,7 +1293,7 @@
         <v>483.85</v>
       </c>
       <c r="AO7" t="n">
-        <v>169.63</v>
+        <v>183.55</v>
       </c>
     </row>
     <row r="8">
@@ -1480,221 +1464,6 @@
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
-      <c r="AL12" t="inlineStr"/>
-      <c r="AM12" t="inlineStr"/>
-      <c r="AN12" t="inlineStr"/>
-      <c r="AO12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="inlineStr"/>
-      <c r="AM13" t="inlineStr"/>
-      <c r="AN13" t="inlineStr"/>
-      <c r="AO13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="inlineStr"/>
-      <c r="AN14" t="inlineStr"/>
-      <c r="AO14" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
